--- a/Code/Results/Cases/Case_0_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_91/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0008644867541693912</v>
+        <v>0.2341817432078095</v>
       </c>
       <c r="D2">
-        <v>0.03454689227732644</v>
+        <v>0.06982524292032366</v>
       </c>
       <c r="E2">
-        <v>0.1490286298079972</v>
+        <v>0.1253305760472827</v>
       </c>
       <c r="F2">
-        <v>0.419012018930907</v>
+        <v>1.962084723588688</v>
       </c>
       <c r="G2">
-        <v>0.0007554893029880057</v>
+        <v>0.002520600672214817</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3415747373939126</v>
+        <v>0.2151374932702907</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4952266078706629</v>
+        <v>0.2092131224034972</v>
       </c>
       <c r="M2">
-        <v>32.83950962702039</v>
+        <v>11.28904589160032</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.633183005056367</v>
+        <v>5.627354544310833</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.004360593076867758</v>
+        <v>0.2436480373668957</v>
       </c>
       <c r="D3">
-        <v>0.03260822976858435</v>
+        <v>0.06995959182046363</v>
       </c>
       <c r="E3">
-        <v>0.127345605395849</v>
+        <v>0.1235244002138245</v>
       </c>
       <c r="F3">
-        <v>0.3846747752185209</v>
+        <v>2.02086215390591</v>
       </c>
       <c r="G3">
-        <v>0.0007683982526398569</v>
+        <v>0.002526810755308015</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2864870637062182</v>
+        <v>0.2096047403423853</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4234334100988946</v>
+        <v>0.1930001562005259</v>
       </c>
       <c r="M3">
-        <v>28.0816440600293</v>
+        <v>9.986315243197339</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.460539548200529</v>
+        <v>5.779349527788185</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008087679929609237</v>
+        <v>0.2497722846182704</v>
       </c>
       <c r="D4">
-        <v>0.03154581711799409</v>
+        <v>0.07007460212251004</v>
       </c>
       <c r="E4">
-        <v>0.1154561686981559</v>
+        <v>0.1225436138629767</v>
       </c>
       <c r="F4">
-        <v>0.376176797171766</v>
+        <v>2.059480990279475</v>
       </c>
       <c r="G4">
-        <v>0.0007762478197884183</v>
+        <v>0.002530789394027733</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2562327820066344</v>
+        <v>0.206470090037314</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3817204725780101</v>
+        <v>0.1831296581791406</v>
       </c>
       <c r="M4">
-        <v>25.26924234617951</v>
+        <v>9.183018286896015</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.392319369696168</v>
+        <v>5.880022600035943</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.009936074642302728</v>
+        <v>0.2523455570065032</v>
       </c>
       <c r="D5">
-        <v>0.03113936049175692</v>
+        <v>0.07012963562143426</v>
       </c>
       <c r="E5">
-        <v>0.110895180521986</v>
+        <v>0.1221756374686578</v>
       </c>
       <c r="F5">
-        <v>0.3753625866052914</v>
+        <v>2.075847419913941</v>
       </c>
       <c r="G5">
-        <v>0.0007794408971424568</v>
+        <v>0.002532452585709733</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2446134070590773</v>
+        <v>0.2052572485916215</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.365184368465421</v>
+        <v>0.1791279315229986</v>
       </c>
       <c r="M5">
-        <v>24.14401833756557</v>
+        <v>8.854784017118902</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.372463661556253</v>
+        <v>5.922874022840375</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01026121844412664</v>
+        <v>0.2527775089704889</v>
       </c>
       <c r="D6">
-        <v>0.03107332927223894</v>
+        <v>0.07013926681808158</v>
       </c>
       <c r="E6">
-        <v>0.1101531586437261</v>
+        <v>0.122116434871046</v>
       </c>
       <c r="F6">
-        <v>0.3753743920682311</v>
+        <v>2.078602834025695</v>
       </c>
       <c r="G6">
-        <v>0.0007799711022919787</v>
+        <v>0.002532731292257036</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2427222152862214</v>
+        <v>0.2050597152387894</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.362463182194773</v>
+        <v>0.1784646741243563</v>
       </c>
       <c r="M6">
-        <v>23.95827240532674</v>
+        <v>8.800226895146977</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.369607256078666</v>
+        <v>5.930099155832778</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008111351643857567</v>
+        <v>0.2498066756007766</v>
       </c>
       <c r="D7">
-        <v>0.03154023471643796</v>
+        <v>0.07007531127307232</v>
       </c>
       <c r="E7">
-        <v>0.1153935922579521</v>
+        <v>0.1225385235313787</v>
       </c>
       <c r="F7">
-        <v>0.3761556912090001</v>
+        <v>2.059699176391291</v>
       </c>
       <c r="G7">
-        <v>0.0007762908900790748</v>
+        <v>0.002530811654446604</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2560734219992895</v>
+        <v>0.206453473712898</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.381495742024029</v>
+        <v>0.1830756069309416</v>
       </c>
       <c r="M7">
-        <v>25.25399028644853</v>
+        <v>9.178595215779353</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.392021232991539</v>
+        <v>5.880593142506143</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001695407930520254</v>
+        <v>0.2373804788559717</v>
       </c>
       <c r="D8">
-        <v>0.03384794453087636</v>
+        <v>0.06986480898724778</v>
       </c>
       <c r="E8">
-        <v>0.1412058027397904</v>
+        <v>0.1246808612610337</v>
       </c>
       <c r="F8">
-        <v>0.4042099442196161</v>
+        <v>1.981821976646749</v>
       </c>
       <c r="G8">
-        <v>0.0007599654429066194</v>
+        <v>0.002522707667086954</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3217101788441425</v>
+        <v>0.2131744227470733</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4698890861574938</v>
+        <v>0.2036049858354829</v>
       </c>
       <c r="M8">
-        <v>31.17190441223175</v>
+        <v>10.84055618897429</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.564757313260657</v>
+        <v>5.678224602089301</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.006005479084101761</v>
+        <v>0.2155251940569141</v>
       </c>
       <c r="D9">
-        <v>0.0397655207229235</v>
+        <v>0.06971079326163476</v>
       </c>
       <c r="E9">
-        <v>0.2079224772894435</v>
+        <v>0.1299255793787282</v>
       </c>
       <c r="F9">
-        <v>0.5913530167123398</v>
+        <v>1.849490129974157</v>
       </c>
       <c r="G9">
-        <v>0.0007264904641595112</v>
+        <v>0.002508119615227428</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4909183492555655</v>
+        <v>0.2285071445250821</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6706366924545648</v>
+        <v>0.2445662340460757</v>
       </c>
       <c r="M9">
-        <v>44.05923891501254</v>
+        <v>14.07407331500991</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.300301524531648</v>
+        <v>5.340636090594643</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02939392091206128</v>
+        <v>0.2010517124399556</v>
       </c>
       <c r="D10">
-        <v>0.04585815068339372</v>
+        <v>0.06975678624282722</v>
       </c>
       <c r="E10">
-        <v>0.2778249661346308</v>
+        <v>0.13445451043156</v>
       </c>
       <c r="F10">
-        <v>0.8806587982582386</v>
+        <v>1.765129866053464</v>
       </c>
       <c r="G10">
-        <v>0.0006991137768277775</v>
+        <v>0.002498181643311892</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6679010876589473</v>
+        <v>0.2411893051781675</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8546149955980979</v>
+        <v>0.2751451279691253</v>
       </c>
       <c r="M10">
-        <v>55.25281509320456</v>
+        <v>16.43677071472075</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.295793830395326</v>
+        <v>5.130056073368337</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04905308741321068</v>
+        <v>0.1948227474371009</v>
       </c>
       <c r="D11">
-        <v>0.04944739099161666</v>
+        <v>0.06981265317483576</v>
       </c>
       <c r="E11">
-        <v>0.3193860352578071</v>
+        <v>0.1366709002605049</v>
       </c>
       <c r="F11">
-        <v>1.077224220638286</v>
+        <v>1.729641499581554</v>
       </c>
       <c r="G11">
-        <v>0.0006852017543394338</v>
+        <v>0.002493826576420355</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7730032986331139</v>
+        <v>0.2472911638120081</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9555183631482862</v>
+        <v>0.2891755437177324</v>
       </c>
       <c r="M11">
-        <v>61.15378478169964</v>
+        <v>17.50948335486021</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.942598084517584</v>
+        <v>5.042679883802322</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05862203095568974</v>
+        <v>0.1925160683321572</v>
       </c>
       <c r="D12">
-        <v>0.05100553937918306</v>
+        <v>0.06983886942894202</v>
       </c>
       <c r="E12">
-        <v>0.337470793296248</v>
+        <v>0.1375334610003449</v>
       </c>
       <c r="F12">
-        <v>1.16655712687097</v>
+        <v>1.716626417709563</v>
       </c>
       <c r="G12">
-        <v>0.000679574881523463</v>
+        <v>0.002492200990835972</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8187047289273295</v>
+        <v>0.2496517651566137</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9978718905159809</v>
+        <v>0.2945069545765193</v>
       </c>
       <c r="M12">
-        <v>63.5815627916628</v>
+        <v>17.91544843165747</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.231862682866108</v>
+        <v>5.010828053318164</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05644511276138386</v>
+        <v>0.1930105192743063</v>
       </c>
       <c r="D13">
-        <v>0.05065894672888049</v>
+        <v>0.06983299759998829</v>
       </c>
       <c r="E13">
-        <v>0.3334468300708124</v>
+        <v>0.1373466451699983</v>
       </c>
       <c r="F13">
-        <v>1.146512242279471</v>
+        <v>1.71941047394413</v>
       </c>
       <c r="G13">
-        <v>0.0006808065285684328</v>
+        <v>0.002492550045002391</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8085377059165637</v>
+        <v>0.2491411103993784</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9885223020994829</v>
+        <v>0.2933579022468109</v>
       </c>
       <c r="M13">
-        <v>63.04810522725131</v>
+        <v>17.82802672074649</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.167170896161792</v>
+        <v>5.017632553024043</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04979034620090239</v>
+        <v>0.1946319254903166</v>
       </c>
       <c r="D14">
-        <v>0.0495708507343906</v>
+        <v>0.06981470835952308</v>
       </c>
       <c r="E14">
-        <v>0.3208183736154453</v>
+        <v>0.1367413926565959</v>
       </c>
       <c r="F14">
-        <v>1.084226035145761</v>
+        <v>1.728562203001715</v>
       </c>
       <c r="G14">
-        <v>0.000684747337752545</v>
+        <v>0.002493692367316177</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7766236684173862</v>
+        <v>0.247484358066373</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9589047795789014</v>
+        <v>0.2896137864455852</v>
       </c>
       <c r="M14">
-        <v>61.3489613058174</v>
+        <v>17.54288699438058</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.965362614800199</v>
+        <v>5.040034504477973</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04602746839720151</v>
+        <v>0.1956318990140993</v>
       </c>
       <c r="D15">
-        <v>0.04893394318109756</v>
+        <v>0.06980416585098936</v>
       </c>
       <c r="E15">
-        <v>0.3134306414645565</v>
+        <v>0.1363737121742261</v>
       </c>
       <c r="F15">
-        <v>1.048257565884469</v>
+        <v>1.73422331685228</v>
       </c>
       <c r="G15">
-        <v>0.0006871079348365123</v>
+        <v>0.002494395136323452</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7579491314897808</v>
+        <v>0.2464761206459087</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9413770401015995</v>
+        <v>0.2873228391090379</v>
       </c>
       <c r="M15">
-        <v>60.33674763902047</v>
+        <v>17.36820004442518</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.848241917174533</v>
+        <v>5.053918019187591</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02834724739791206</v>
+        <v>0.2014660229906404</v>
       </c>
       <c r="D16">
-        <v>0.04564554293861534</v>
+        <v>0.06975384133114915</v>
       </c>
       <c r="E16">
-        <v>0.2753695886052014</v>
+        <v>0.1343128743091029</v>
       </c>
       <c r="F16">
-        <v>0.8695032556496898</v>
+        <v>1.76750793026298</v>
       </c>
       <c r="G16">
-        <v>0.0006999833605024758</v>
+        <v>0.002498469571328155</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6616887418647934</v>
+        <v>0.24079740735489</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8484809597821084</v>
+        <v>0.2742307167068816</v>
       </c>
       <c r="M16">
-        <v>54.88872155806342</v>
+        <v>16.36662874237373</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.258562364127755</v>
+        <v>5.135937839203535</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02022386790985342</v>
+        <v>0.205136743204676</v>
       </c>
       <c r="D17">
-        <v>0.04387749097837457</v>
+        <v>0.06973194300866936</v>
       </c>
       <c r="E17">
-        <v>0.2549886828477881</v>
+        <v>0.1330891716736105</v>
       </c>
       <c r="F17">
-        <v>0.7792904887016761</v>
+        <v>1.78867242993234</v>
       </c>
       <c r="G17">
-        <v>0.0007074334440453911</v>
+        <v>0.002501011384381304</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6101107621814776</v>
+        <v>0.2374003799916125</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.796729923655235</v>
+        <v>0.2662306276127708</v>
       </c>
       <c r="M17">
-        <v>51.79221297112241</v>
+        <v>15.75169765115129</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.954821471069977</v>
+        <v>5.188428071975011</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01633104529342644</v>
+        <v>0.2072814041530151</v>
       </c>
       <c r="D18">
-        <v>0.04293063739326186</v>
+        <v>0.06972263441530657</v>
       </c>
       <c r="E18">
-        <v>0.2441057209424642</v>
+        <v>0.1323999773288875</v>
       </c>
       <c r="F18">
-        <v>0.7330531495376249</v>
+        <v>1.801116968903258</v>
       </c>
       <c r="G18">
-        <v>0.0007115937216090686</v>
+        <v>0.002502488986093094</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5825604464599365</v>
+        <v>0.2354776791243864</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7684438646882654</v>
+        <v>0.2616404007798394</v>
       </c>
       <c r="M18">
-        <v>50.08088683130524</v>
+        <v>15.397805336614</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.797002789582194</v>
+        <v>5.219409844777488</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01513079215478941</v>
+        <v>0.2080132480617287</v>
       </c>
       <c r="D19">
-        <v>0.04262054095658385</v>
+        <v>0.06972004616876148</v>
       </c>
       <c r="E19">
-        <v>0.24054691309464</v>
+        <v>0.1321691197923016</v>
       </c>
       <c r="F19">
-        <v>0.7182584428829415</v>
+        <v>1.805376816181493</v>
       </c>
       <c r="G19">
-        <v>0.0007129838211085874</v>
+        <v>0.002502991966785972</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5735499820522136</v>
+        <v>0.2348319780381445</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7590885206980147</v>
+        <v>0.260088121159697</v>
       </c>
       <c r="M19">
-        <v>49.51193019929894</v>
+        <v>15.27794757279986</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.746141516777413</v>
+        <v>5.230034799083825</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02100386661206177</v>
+        <v>0.2047425287719058</v>
       </c>
       <c r="D20">
-        <v>0.0440580578258718</v>
+        <v>0.06973393371348635</v>
       </c>
       <c r="E20">
-        <v>0.2570667572601906</v>
+        <v>0.1332179153001647</v>
       </c>
       <c r="F20">
-        <v>0.7882812071244842</v>
+        <v>1.78639129646529</v>
       </c>
       <c r="G20">
-        <v>0.000706654029213435</v>
+        <v>0.002500739189468562</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.615370736732288</v>
+        <v>0.2377587574138147</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8020775810897618</v>
+        <v>0.2670810822374108</v>
       </c>
       <c r="M20">
-        <v>52.11424777921513</v>
+        <v>15.81717847214856</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.985325303670692</v>
+        <v>5.182758373750175</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05167704639615645</v>
+        <v>0.1941542569702435</v>
       </c>
       <c r="D21">
-        <v>0.04988401762309991</v>
+        <v>0.06981994270110903</v>
       </c>
       <c r="E21">
-        <v>0.324452173773885</v>
+        <v>0.1369185319984183</v>
       </c>
       <c r="F21">
-        <v>1.102048365638936</v>
+        <v>1.725862554580871</v>
       </c>
       <c r="G21">
-        <v>0.0006836013998470225</v>
+        <v>0.002493356201486827</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7858078678785319</v>
+        <v>0.2479696129944671</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9674708444136542</v>
+        <v>0.2907130150547061</v>
       </c>
       <c r="M21">
-        <v>61.84184257440444</v>
+        <v>17.62664572688431</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.023233676479208</v>
+        <v>5.033420770134569</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08525603501486767</v>
+        <v>0.1875383572841827</v>
       </c>
       <c r="D22">
-        <v>0.05496910792090404</v>
+        <v>0.06990567165048134</v>
       </c>
       <c r="E22">
-        <v>0.3834926766254583</v>
+        <v>0.1394730964881248</v>
       </c>
       <c r="F22">
-        <v>1.401450481399579</v>
+        <v>1.688776555869453</v>
       </c>
       <c r="G22">
-        <v>0.0006662415678138607</v>
+        <v>0.002488668334045311</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9349054568976527</v>
+        <v>0.2549352716944639</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.102053612374604</v>
+        <v>0.3062656862172446</v>
       </c>
       <c r="M22">
-        <v>69.43171242624885</v>
+        <v>18.80782028963392</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.982070629421912</v>
+        <v>4.943034322178534</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.065566652631321</v>
+        <v>0.1910412092043785</v>
       </c>
       <c r="D23">
-        <v>0.05208462194011787</v>
+        <v>0.06985720274399654</v>
       </c>
       <c r="E23">
-        <v>0.3500014869707684</v>
+        <v>0.1380969544841406</v>
       </c>
       <c r="F23">
-        <v>1.229537966439437</v>
+        <v>1.708340956981679</v>
       </c>
       <c r="G23">
-        <v>0.0006758106905323007</v>
+        <v>0.002491157856039355</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.850358156526795</v>
+        <v>0.2511900935841282</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.026726775788305</v>
+        <v>0.2979546593233806</v>
       </c>
       <c r="M23">
-        <v>65.21911819408115</v>
+        <v>18.17751608191048</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.434379395843507</v>
+        <v>4.990606700124374</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02064885790607884</v>
+        <v>0.204920646311578</v>
       </c>
       <c r="D24">
-        <v>0.0439762115649458</v>
+        <v>0.06973302349867083</v>
       </c>
       <c r="E24">
-        <v>0.2561247181680244</v>
+        <v>0.1331596657366489</v>
       </c>
       <c r="F24">
-        <v>0.7841993161807181</v>
+        <v>1.787421735409907</v>
       </c>
       <c r="G24">
-        <v>0.000707006776292086</v>
+        <v>0.002500862198013822</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6129862963906874</v>
+        <v>0.2375966407769567</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7996554389240913</v>
+        <v>0.2666965633464429</v>
       </c>
       <c r="M24">
-        <v>51.96844591475798</v>
+        <v>15.78757571895494</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.971483182521325</v>
+        <v>5.18531914057013</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.002272664628304888</v>
+        <v>0.2211633632879355</v>
       </c>
       <c r="D25">
-        <v>0.03794876401015301</v>
+        <v>0.06972462529002144</v>
       </c>
       <c r="E25">
-        <v>0.1873094069509378</v>
+        <v>0.1283910977651104</v>
       </c>
       <c r="F25">
-        <v>0.521028446415805</v>
+        <v>1.88306236855346</v>
       </c>
       <c r="G25">
-        <v>0.0007358498622169276</v>
+        <v>0.002511928008835214</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4386784419411498</v>
+        <v>0.2241183078025983</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6118878137202302</v>
+        <v>0.2334043952599387</v>
       </c>
       <c r="M25">
-        <v>40.36297279192183</v>
+        <v>13.20180630487567</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.042177240891561</v>
+        <v>5.425483725511555</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_91/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_91/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2341817432078095</v>
+        <v>0.0008644867537190848</v>
       </c>
       <c r="D2">
-        <v>0.06982524292032366</v>
+        <v>0.03454689227732644</v>
       </c>
       <c r="E2">
-        <v>0.1253305760472827</v>
+        <v>0.1490286298079617</v>
       </c>
       <c r="F2">
-        <v>1.962084723588688</v>
+        <v>0.4190120189309425</v>
       </c>
       <c r="G2">
-        <v>0.002520600672214817</v>
+        <v>0.0007554893030166589</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2151374932702907</v>
+        <v>0.3415747373939979</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2092131224034972</v>
+        <v>0.495226607870535</v>
       </c>
       <c r="M2">
-        <v>11.28904589160032</v>
+        <v>32.83950962702039</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.627354544310833</v>
+        <v>1.633183005056367</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2436480373668957</v>
+        <v>0.004360593076875752</v>
       </c>
       <c r="D3">
-        <v>0.06995959182046363</v>
+        <v>0.0326082297682575</v>
       </c>
       <c r="E3">
-        <v>0.1235244002138245</v>
+        <v>0.1273456053958739</v>
       </c>
       <c r="F3">
-        <v>2.02086215390591</v>
+        <v>0.3846747752185138</v>
       </c>
       <c r="G3">
-        <v>0.002526810755308015</v>
+        <v>0.0007683982526700215</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2096047403423853</v>
+        <v>0.2864870637062324</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1930001562005259</v>
+        <v>0.4234334100987667</v>
       </c>
       <c r="M3">
-        <v>9.986315243197339</v>
+        <v>28.08164406002942</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.779349527788185</v>
+        <v>1.460539548200501</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2497722846182704</v>
+        <v>0.008087679929793978</v>
       </c>
       <c r="D4">
-        <v>0.07007460212251004</v>
+        <v>0.03154581711822146</v>
       </c>
       <c r="E4">
-        <v>0.1225436138629767</v>
+        <v>0.1154561686981488</v>
       </c>
       <c r="F4">
-        <v>2.059480990279475</v>
+        <v>0.3761767971717731</v>
       </c>
       <c r="G4">
-        <v>0.002530789394027733</v>
+        <v>0.0007762478197830755</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.206470090037314</v>
+        <v>0.2562327820066486</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1831296581791406</v>
+        <v>0.3817204725779959</v>
       </c>
       <c r="M4">
-        <v>9.183018286896015</v>
+        <v>25.26924234617962</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.880022600035943</v>
+        <v>1.392319369696253</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2523455570065032</v>
+        <v>0.009936074642436843</v>
       </c>
       <c r="D5">
-        <v>0.07012963562143426</v>
+        <v>0.03113936049184929</v>
       </c>
       <c r="E5">
-        <v>0.1221756374686578</v>
+        <v>0.1108951805219682</v>
       </c>
       <c r="F5">
-        <v>2.075847419913941</v>
+        <v>0.3753625866052914</v>
       </c>
       <c r="G5">
-        <v>0.002532452585709733</v>
+        <v>0.0007794408971410079</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2052572485916215</v>
+        <v>0.2446134070590489</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1791279315229986</v>
+        <v>0.3651843684653926</v>
       </c>
       <c r="M5">
-        <v>8.854784017118902</v>
+        <v>24.14401833756557</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.922874022840375</v>
+        <v>1.37246366155631</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2527775089704889</v>
+        <v>0.01026121844402983</v>
       </c>
       <c r="D6">
-        <v>0.07013926681808158</v>
+        <v>0.03107332927210393</v>
       </c>
       <c r="E6">
-        <v>0.122116434871046</v>
+        <v>0.1101531586437154</v>
       </c>
       <c r="F6">
-        <v>2.078602834025695</v>
+        <v>0.3753743920682453</v>
       </c>
       <c r="G6">
-        <v>0.002532731292257036</v>
+        <v>0.0007799711022613417</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2050597152387894</v>
+        <v>0.2427222152863067</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1784646741243563</v>
+        <v>0.3624631821947446</v>
       </c>
       <c r="M6">
-        <v>8.800226895146977</v>
+        <v>23.95827240532668</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.930099155832778</v>
+        <v>1.36960725607878</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2498066756007766</v>
+        <v>0.008111351643854903</v>
       </c>
       <c r="D7">
-        <v>0.07007531127307232</v>
+        <v>0.03154023471631007</v>
       </c>
       <c r="E7">
-        <v>0.1225385235313787</v>
+        <v>0.1153935922579343</v>
       </c>
       <c r="F7">
-        <v>2.059699176391291</v>
+        <v>0.3761556912089929</v>
       </c>
       <c r="G7">
-        <v>0.002530811654446604</v>
+        <v>0.0007762908900205332</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.206453473712898</v>
+        <v>0.2560734219992753</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1830756069309416</v>
+        <v>0.381495742024029</v>
       </c>
       <c r="M7">
-        <v>9.178595215779353</v>
+        <v>25.25399028644858</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.880593142506143</v>
+        <v>1.392021232991539</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2373804788559717</v>
+        <v>0.00169540793039058</v>
       </c>
       <c r="D8">
-        <v>0.06986480898724778</v>
+        <v>0.0338479445309261</v>
       </c>
       <c r="E8">
-        <v>0.1246808612610337</v>
+        <v>0.141205802739762</v>
       </c>
       <c r="F8">
-        <v>1.981821976646749</v>
+        <v>0.4042099442196161</v>
       </c>
       <c r="G8">
-        <v>0.002522707667086954</v>
+        <v>0.0007599654428815606</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2131744227470733</v>
+        <v>0.3217101788441283</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2036049858354829</v>
+        <v>0.4698890861574085</v>
       </c>
       <c r="M8">
-        <v>10.84055618897429</v>
+        <v>31.17190441223175</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.678224602089301</v>
+        <v>1.564757313260657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2155251940569141</v>
+        <v>0.00600547908410265</v>
       </c>
       <c r="D9">
-        <v>0.06971079326163476</v>
+        <v>0.03976552072309403</v>
       </c>
       <c r="E9">
-        <v>0.1299255793787282</v>
+        <v>0.2079224772894506</v>
       </c>
       <c r="F9">
-        <v>1.849490129974157</v>
+        <v>0.5913530167123469</v>
       </c>
       <c r="G9">
-        <v>0.002508119615227428</v>
+        <v>0.0007264904641323745</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2285071445250821</v>
+        <v>0.490918349255594</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2445662340460757</v>
+        <v>0.6706366924545506</v>
       </c>
       <c r="M9">
-        <v>14.07407331500991</v>
+        <v>44.05923891501277</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.340636090594643</v>
+        <v>2.300301524531591</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2010517124399556</v>
+        <v>0.02939392091216964</v>
       </c>
       <c r="D10">
-        <v>0.06975678624282722</v>
+        <v>0.04585815068316634</v>
       </c>
       <c r="E10">
-        <v>0.13445451043156</v>
+        <v>0.2778249661346592</v>
       </c>
       <c r="F10">
-        <v>1.765129866053464</v>
+        <v>0.8806587982582244</v>
       </c>
       <c r="G10">
-        <v>0.002498181643311892</v>
+        <v>0.0006991137768599622</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2411893051781675</v>
+        <v>0.6679010876589047</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2751451279691253</v>
+        <v>0.8546149955981122</v>
       </c>
       <c r="M10">
-        <v>16.43677071472075</v>
+        <v>55.25281509320484</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.130056073368337</v>
+        <v>3.29579383039524</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1948227474371009</v>
+        <v>0.049053087413097</v>
       </c>
       <c r="D11">
-        <v>0.06981265317483576</v>
+        <v>0.04944739099134665</v>
       </c>
       <c r="E11">
-        <v>0.1366709002605049</v>
+        <v>0.3193860352577929</v>
       </c>
       <c r="F11">
-        <v>1.729641499581554</v>
+        <v>1.077224220638257</v>
       </c>
       <c r="G11">
-        <v>0.002493826576420355</v>
+        <v>0.0006852017542867937</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2472911638120081</v>
+        <v>0.7730032986332276</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2891755437177324</v>
+        <v>0.9555183631481867</v>
       </c>
       <c r="M11">
-        <v>17.50948335486021</v>
+        <v>61.15378478169958</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.042679883802322</v>
+        <v>3.942598084517499</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1925160683321572</v>
+        <v>0.05862203095556939</v>
       </c>
       <c r="D12">
-        <v>0.06983886942894202</v>
+        <v>0.0510055393792328</v>
       </c>
       <c r="E12">
-        <v>0.1375334610003449</v>
+        <v>0.3374707932962338</v>
       </c>
       <c r="F12">
-        <v>1.716626417709563</v>
+        <v>1.166557126870956</v>
       </c>
       <c r="G12">
-        <v>0.002492200990835972</v>
+        <v>0.0006795748814702094</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2496517651566137</v>
+        <v>0.8187047289273295</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2945069545765193</v>
+        <v>0.9978718905159809</v>
       </c>
       <c r="M12">
-        <v>17.91544843165747</v>
+        <v>63.58156279166286</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.010828053318164</v>
+        <v>4.231862682865938</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1930105192743063</v>
+        <v>0.05644511276115027</v>
       </c>
       <c r="D13">
-        <v>0.06983299759998829</v>
+        <v>0.05065894672872417</v>
       </c>
       <c r="E13">
-        <v>0.1373466451699983</v>
+        <v>0.3334468300708195</v>
       </c>
       <c r="F13">
-        <v>1.71941047394413</v>
+        <v>1.146512242279499</v>
       </c>
       <c r="G13">
-        <v>0.002492550045002391</v>
+        <v>0.0006808065285676539</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2491411103993784</v>
+        <v>0.8085377059166063</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2933579022468109</v>
+        <v>0.9885223020994545</v>
       </c>
       <c r="M13">
-        <v>17.82802672074649</v>
+        <v>63.04810522725154</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.017632553024043</v>
+        <v>4.167170896161849</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1946319254903166</v>
+        <v>0.04979034620112777</v>
       </c>
       <c r="D14">
-        <v>0.06981470835952308</v>
+        <v>0.04957085073462508</v>
       </c>
       <c r="E14">
-        <v>0.1367413926565959</v>
+        <v>0.3208183736154595</v>
       </c>
       <c r="F14">
-        <v>1.728562203001715</v>
+        <v>1.084226035145718</v>
       </c>
       <c r="G14">
-        <v>0.002493692367316177</v>
+        <v>0.0006847473377818436</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.247484358066373</v>
+        <v>0.7766236684174288</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2896137864455852</v>
+        <v>0.9589047795787877</v>
       </c>
       <c r="M14">
-        <v>17.54288699438058</v>
+        <v>61.348961305817</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.040034504477973</v>
+        <v>3.965362614800114</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1956318990140993</v>
+        <v>0.04602746839721905</v>
       </c>
       <c r="D15">
-        <v>0.06980416585098936</v>
+        <v>0.04893394318104072</v>
       </c>
       <c r="E15">
-        <v>0.1363737121742261</v>
+        <v>0.3134306414645636</v>
       </c>
       <c r="F15">
-        <v>1.73422331685228</v>
+        <v>1.048257565884484</v>
       </c>
       <c r="G15">
-        <v>0.002494395136323452</v>
+        <v>0.0006871079348674202</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2464761206459087</v>
+        <v>0.7579491314897808</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2873228391090379</v>
+        <v>0.9413770401015569</v>
       </c>
       <c r="M15">
-        <v>17.36820004442518</v>
+        <v>60.33674763902076</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.053918019187591</v>
+        <v>3.848241917174562</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2014660229906404</v>
+        <v>0.02834724739803351</v>
       </c>
       <c r="D16">
-        <v>0.06975384133114915</v>
+        <v>0.04564554293835243</v>
       </c>
       <c r="E16">
-        <v>0.1343128743091029</v>
+        <v>0.2753695886051872</v>
       </c>
       <c r="F16">
-        <v>1.76750793026298</v>
+        <v>0.8695032556496756</v>
       </c>
       <c r="G16">
-        <v>0.002498469571328155</v>
+        <v>0.0006999833605302676</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.24079740735489</v>
+        <v>0.6616887418648076</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2742307167068816</v>
+        <v>0.8484809597820657</v>
       </c>
       <c r="M16">
-        <v>16.36662874237373</v>
+        <v>54.88872155806342</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.135937839203535</v>
+        <v>3.258562364127613</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.205136743204676</v>
+        <v>0.0202238679098532</v>
       </c>
       <c r="D17">
-        <v>0.06973194300866936</v>
+        <v>0.04387749097833904</v>
       </c>
       <c r="E17">
-        <v>0.1330891716736105</v>
+        <v>0.2549886828477881</v>
       </c>
       <c r="F17">
-        <v>1.78867242993234</v>
+        <v>0.7792904887016761</v>
       </c>
       <c r="G17">
-        <v>0.002501011384381304</v>
+        <v>0.0007074334440487069</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2374003799916125</v>
+        <v>0.6101107621814492</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2662306276127708</v>
+        <v>0.7967299236552918</v>
       </c>
       <c r="M17">
-        <v>15.75169765115129</v>
+        <v>51.79221297112235</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.188428071975011</v>
+        <v>2.954821471069977</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2072814041530151</v>
+        <v>0.01633104529354301</v>
       </c>
       <c r="D18">
-        <v>0.06972263441530657</v>
+        <v>0.04293063739299185</v>
       </c>
       <c r="E18">
-        <v>0.1323999773288875</v>
+        <v>0.24410572094245</v>
       </c>
       <c r="F18">
-        <v>1.801116968903258</v>
+        <v>0.7330531495376391</v>
       </c>
       <c r="G18">
-        <v>0.002502488986093094</v>
+        <v>0.0007115937216374927</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2354776791243864</v>
+        <v>0.5825604464600787</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2616404007798394</v>
+        <v>0.7684438646882086</v>
       </c>
       <c r="M18">
-        <v>15.397805336614</v>
+        <v>50.08088683130541</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.219409844777488</v>
+        <v>2.797002789582251</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2080132480617287</v>
+        <v>0.01513079215479429</v>
       </c>
       <c r="D19">
-        <v>0.06972004616876148</v>
+        <v>0.04262054095647727</v>
       </c>
       <c r="E19">
-        <v>0.1321691197923016</v>
+        <v>0.2405469130946116</v>
       </c>
       <c r="F19">
-        <v>1.805376816181493</v>
+        <v>0.7182584428829273</v>
       </c>
       <c r="G19">
-        <v>0.002502991966785972</v>
+        <v>0.0007129838211076224</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2348319780381445</v>
+        <v>0.5735499820521852</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.260088121159697</v>
+        <v>0.7590885206979152</v>
       </c>
       <c r="M19">
-        <v>15.27794757279986</v>
+        <v>49.511930199299</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.230034799083825</v>
+        <v>2.746141516777413</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2047425287719058</v>
+        <v>0.02100386661217435</v>
       </c>
       <c r="D20">
-        <v>0.06973393371348635</v>
+        <v>0.04405805782569416</v>
       </c>
       <c r="E20">
-        <v>0.1332179153001647</v>
+        <v>0.2570667572601906</v>
       </c>
       <c r="F20">
-        <v>1.78639129646529</v>
+        <v>0.7882812071244842</v>
       </c>
       <c r="G20">
-        <v>0.002500739189468562</v>
+        <v>0.0007066540291866263</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2377587574138147</v>
+        <v>0.6153707367323733</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2670810822374108</v>
+        <v>0.8020775810897192</v>
       </c>
       <c r="M20">
-        <v>15.81717847214856</v>
+        <v>52.11424777921502</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.182758373750175</v>
+        <v>2.985325303670635</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1941542569702435</v>
+        <v>0.05167704639616133</v>
       </c>
       <c r="D21">
-        <v>0.06981994270110903</v>
+        <v>0.04988401762320649</v>
       </c>
       <c r="E21">
-        <v>0.1369185319984183</v>
+        <v>0.3244521737739063</v>
       </c>
       <c r="F21">
-        <v>1.725862554580871</v>
+        <v>1.10204836563895</v>
       </c>
       <c r="G21">
-        <v>0.002493356201486827</v>
+        <v>0.0006836013998466444</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2479696129944671</v>
+        <v>0.7858078678785887</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2907130150547061</v>
+        <v>0.9674708444136257</v>
       </c>
       <c r="M21">
-        <v>17.62664572688431</v>
+        <v>61.84184257440444</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.033420770134569</v>
+        <v>4.02323367647918</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1875383572841827</v>
+        <v>0.08525603501473711</v>
       </c>
       <c r="D22">
-        <v>0.06990567165048134</v>
+        <v>0.05496910792084719</v>
       </c>
       <c r="E22">
-        <v>0.1394730964881248</v>
+        <v>0.3834926766254654</v>
       </c>
       <c r="F22">
-        <v>1.688776555869453</v>
+        <v>1.401450481399593</v>
       </c>
       <c r="G22">
-        <v>0.002488668334045311</v>
+        <v>0.0006662415677546731</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2549352716944639</v>
+        <v>0.9349054568976811</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3062656862172446</v>
+        <v>1.102053612374561</v>
       </c>
       <c r="M22">
-        <v>18.80782028963392</v>
+        <v>69.43171242624851</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.943034322178534</v>
+        <v>4.982070629421912</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1910412092043785</v>
+        <v>0.06556665263131567</v>
       </c>
       <c r="D23">
-        <v>0.06985720274399654</v>
+        <v>0.05208462194000418</v>
       </c>
       <c r="E23">
-        <v>0.1380969544841406</v>
+        <v>0.3500014869707471</v>
       </c>
       <c r="F23">
-        <v>1.708340956981679</v>
+        <v>1.229537966439452</v>
       </c>
       <c r="G23">
-        <v>0.002491157856039355</v>
+        <v>0.0006758106904953919</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2511900935841282</v>
+        <v>0.8503581565268945</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2979546593233806</v>
+        <v>1.026726775788276</v>
       </c>
       <c r="M23">
-        <v>18.17751608191048</v>
+        <v>65.21911819408109</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.990606700124374</v>
+        <v>4.434379395843536</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.204920646311578</v>
+        <v>0.02064885790618742</v>
       </c>
       <c r="D24">
-        <v>0.06973302349867083</v>
+        <v>0.04397621156473974</v>
       </c>
       <c r="E24">
-        <v>0.1331596657366489</v>
+        <v>0.2561247181680457</v>
       </c>
       <c r="F24">
-        <v>1.787421735409907</v>
+        <v>0.7841993161807324</v>
       </c>
       <c r="G24">
-        <v>0.002500862198013822</v>
+        <v>0.0007070067762650929</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2375966407769567</v>
+        <v>0.6129862963908863</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2666965633464429</v>
+        <v>0.7996554389241481</v>
       </c>
       <c r="M24">
-        <v>15.78757571895494</v>
+        <v>51.96844591475781</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.18531914057013</v>
+        <v>2.971483182521297</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2211633632879355</v>
+        <v>0.002272664628092613</v>
       </c>
       <c r="D25">
-        <v>0.06972462529002144</v>
+        <v>0.03794876401015301</v>
       </c>
       <c r="E25">
-        <v>0.1283910977651104</v>
+        <v>0.1873094069509307</v>
       </c>
       <c r="F25">
-        <v>1.88306236855346</v>
+        <v>0.5210284464158121</v>
       </c>
       <c r="G25">
-        <v>0.002511928008835214</v>
+        <v>0.0007358498622186488</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2241183078025983</v>
+        <v>0.4386784419411072</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2334043952599387</v>
+        <v>0.6118878137202302</v>
       </c>
       <c r="M25">
-        <v>13.20180630487567</v>
+        <v>40.36297279192212</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.425483725511555</v>
+        <v>2.042177240891533</v>
       </c>
     </row>
   </sheetData>
